--- a/data/512_400time.xlsx
+++ b/data/512_400time.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11321,9 +11321,3779 @@
         <v>0.5185185185185185</v>
       </c>
       <c r="G421" t="n">
-        <v>256</v>
+        <v>2562019</v>
       </c>
       <c r="H421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C422" s="2" t="n">
+        <v>43557.51777777778</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.5269157694743508</v>
+      </c>
+      <c r="E422" t="n">
+        <v>455</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.4730344379467186</v>
+      </c>
+      <c r="G422" t="n">
+        <v>256</v>
+      </c>
+      <c r="H422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C423" s="2" t="n">
+        <v>43557.51878472222</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.497862571247625</v>
+      </c>
+      <c r="E423" t="n">
+        <v>455</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.4944769330734243</v>
+      </c>
+      <c r="G423" t="n">
+        <v>256</v>
+      </c>
+      <c r="H423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C424" s="2" t="n">
+        <v>43557.5197800926</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.4809214692843572</v>
+      </c>
+      <c r="E424" t="n">
+        <v>455</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.4827810266406757</v>
+      </c>
+      <c r="G424" t="n">
+        <v>256</v>
+      </c>
+      <c r="H424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C425" s="2" t="n">
+        <v>43557.52077546297</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.4422102596580114</v>
+      </c>
+      <c r="E425" t="n">
+        <v>455</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.4775828460038986</v>
+      </c>
+      <c r="G425" t="n">
+        <v>256</v>
+      </c>
+      <c r="H425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C426" s="2" t="n">
+        <v>43557.52175925926</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.4806048131728942</v>
+      </c>
+      <c r="E426" t="n">
+        <v>455</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.4015594541910331</v>
+      </c>
+      <c r="G426" t="n">
+        <v>256</v>
+      </c>
+      <c r="H426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C427" s="2" t="n">
+        <v>43557.52271990741</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.4787048765041165</v>
+      </c>
+      <c r="E427" t="n">
+        <v>455</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.4957764782326186</v>
+      </c>
+      <c r="G427" t="n">
+        <v>256</v>
+      </c>
+      <c r="H427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C428" s="2" t="n">
+        <v>43557.52366898148</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.4627137428752375</v>
+      </c>
+      <c r="E428" t="n">
+        <v>455</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.4951267056530214</v>
+      </c>
+      <c r="G428" t="n">
+        <v>256</v>
+      </c>
+      <c r="H428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C429" s="2" t="n">
+        <v>43557.52460648148</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.4699176694110197</v>
+      </c>
+      <c r="E429" t="n">
+        <v>455</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.5276153346328785</v>
+      </c>
+      <c r="G429" t="n">
+        <v>256</v>
+      </c>
+      <c r="H429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C430" s="2" t="n">
+        <v>43557.52554398148</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.4436352121595947</v>
+      </c>
+      <c r="E430" t="n">
+        <v>455</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="G430" t="n">
+        <v>256</v>
+      </c>
+      <c r="H430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C431" s="2" t="n">
+        <v>43557.52646990741</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.4623179227359088</v>
+      </c>
+      <c r="E431" t="n">
+        <v>455</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.4769330734243015</v>
+      </c>
+      <c r="G431" t="n">
+        <v>256</v>
+      </c>
+      <c r="H431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C432" s="2" t="n">
+        <v>43557.52738425926</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.4551139962001266</v>
+      </c>
+      <c r="E432" t="n">
+        <v>455</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.4548408057179987</v>
+      </c>
+      <c r="G432" t="n">
+        <v>256</v>
+      </c>
+      <c r="H432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C433" s="2" t="n">
+        <v>43557.52828703704</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.4181443951868271</v>
+      </c>
+      <c r="E433" t="n">
+        <v>455</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.4665367121507472</v>
+      </c>
+      <c r="G433" t="n">
+        <v>256</v>
+      </c>
+      <c r="H433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C434" s="2" t="n">
+        <v>43557.52921296296</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.4806048131728942</v>
+      </c>
+      <c r="E434" t="n">
+        <v>455</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.4639376218323586</v>
+      </c>
+      <c r="G434" t="n">
+        <v>256</v>
+      </c>
+      <c r="H434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C435" s="2" t="n">
+        <v>43557.53011574074</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.4506808106396453</v>
+      </c>
+      <c r="E435" t="n">
+        <v>455</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.4457439896036387</v>
+      </c>
+      <c r="G435" t="n">
+        <v>256</v>
+      </c>
+      <c r="H435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C436" s="2" t="n">
+        <v>43557.53100694445</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.4963584547181761</v>
+      </c>
+      <c r="E436" t="n">
+        <v>455</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.4463937621832358</v>
+      </c>
+      <c r="G436" t="n">
+        <v>256</v>
+      </c>
+      <c r="H436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C437" s="2" t="n">
+        <v>43557.53189814815</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.5026124129195694</v>
+      </c>
+      <c r="E437" t="n">
+        <v>455</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.5198180636777128</v>
+      </c>
+      <c r="G437" t="n">
+        <v>256</v>
+      </c>
+      <c r="H437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C438" s="2" t="n">
+        <v>43557.53278935186</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.4561431285623813</v>
+      </c>
+      <c r="E438" t="n">
+        <v>455</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.5055230669265757</v>
+      </c>
+      <c r="G438" t="n">
+        <v>256</v>
+      </c>
+      <c r="H438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C439" s="2" t="n">
+        <v>43557.53366898148</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.4491766941101963</v>
+      </c>
+      <c r="E439" t="n">
+        <v>455</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="G439" t="n">
+        <v>256</v>
+      </c>
+      <c r="H439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C440" s="2" t="n">
+        <v>43557.53454861111</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.4711842938568714</v>
+      </c>
+      <c r="E440" t="n">
+        <v>455</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.4197530864197531</v>
+      </c>
+      <c r="G440" t="n">
+        <v>256</v>
+      </c>
+      <c r="H440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C441" s="2" t="n">
+        <v>43557.53542824074</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.4794173527549082</v>
+      </c>
+      <c r="E441" t="n">
+        <v>455</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.4275503573749188</v>
+      </c>
+      <c r="G441" t="n">
+        <v>256</v>
+      </c>
+      <c r="H441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C442" s="2" t="n">
+        <v>43557.5362962963</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.4656428119062698</v>
+      </c>
+      <c r="E442" t="n">
+        <v>455</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.4509421702404158</v>
+      </c>
+      <c r="G442" t="n">
+        <v>256</v>
+      </c>
+      <c r="H442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C443" s="2" t="n">
+        <v>43557.53717592593</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.4589138695376821</v>
+      </c>
+      <c r="E443" t="n">
+        <v>455</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.5139701104613386</v>
+      </c>
+      <c r="G443" t="n">
+        <v>256</v>
+      </c>
+      <c r="H443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C444" s="2" t="n">
+        <v>43557.53804398148</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.4850379987333756</v>
+      </c>
+      <c r="E444" t="n">
+        <v>455</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.4522417153996101</v>
+      </c>
+      <c r="G444" t="n">
+        <v>256</v>
+      </c>
+      <c r="H444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C445" s="2" t="n">
+        <v>43557.53890046296</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.4784673844205194</v>
+      </c>
+      <c r="E445" t="n">
+        <v>455</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.4463937621832358</v>
+      </c>
+      <c r="G445" t="n">
+        <v>256</v>
+      </c>
+      <c r="H445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C446" s="2" t="n">
+        <v>43557.53976851852</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.4860671310956302</v>
+      </c>
+      <c r="E446" t="n">
+        <v>455</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.4892787524366472</v>
+      </c>
+      <c r="G446" t="n">
+        <v>256</v>
+      </c>
+      <c r="H446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C447" s="2" t="n">
+        <v>43557.540625</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.5124287523749208</v>
+      </c>
+      <c r="E447" t="n">
+        <v>455</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.4502923976608187</v>
+      </c>
+      <c r="G447" t="n">
+        <v>256</v>
+      </c>
+      <c r="H447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C448" s="2" t="n">
+        <v>43557.54148148148</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.4654053198226726</v>
+      </c>
+      <c r="E448" t="n">
+        <v>455</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.4567901234567901</v>
+      </c>
+      <c r="G448" t="n">
+        <v>256</v>
+      </c>
+      <c r="H448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C449" s="2" t="n">
+        <v>43557.54234953703</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.4532932235592147</v>
+      </c>
+      <c r="E449" t="n">
+        <v>455</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.4704353476283301</v>
+      </c>
+      <c r="G449" t="n">
+        <v>256</v>
+      </c>
+      <c r="H449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C450" s="2" t="n">
+        <v>43557.54320601852</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.4901836605446485</v>
+      </c>
+      <c r="E450" t="n">
+        <v>455</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.4405458089668616</v>
+      </c>
+      <c r="G450" t="n">
+        <v>256</v>
+      </c>
+      <c r="H450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C451" s="2" t="n">
+        <v>43557.5440625</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.4589930335655478</v>
+      </c>
+      <c r="E451" t="n">
+        <v>455</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.4762833008447043</v>
+      </c>
+      <c r="G451" t="n">
+        <v>256</v>
+      </c>
+      <c r="H451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C452" s="2" t="n">
+        <v>43557.54490740741</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.5125079164027866</v>
+      </c>
+      <c r="E452" t="n">
+        <v>455</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.5399610136452242</v>
+      </c>
+      <c r="G452" t="n">
+        <v>256</v>
+      </c>
+      <c r="H452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C453" s="2" t="n">
+        <v>43557.54576388889</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.4744300189993667</v>
+      </c>
+      <c r="E453" t="n">
+        <v>455</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.5152696556205328</v>
+      </c>
+      <c r="G453" t="n">
+        <v>256</v>
+      </c>
+      <c r="H453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C454" s="2" t="n">
+        <v>43557.5466087963</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.4915294490183661</v>
+      </c>
+      <c r="E454" t="n">
+        <v>455</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.5159194282001299</v>
+      </c>
+      <c r="G454" t="n">
+        <v>256</v>
+      </c>
+      <c r="H454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C455" s="2" t="n">
+        <v>43557.5474537037</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.5072039265357822</v>
+      </c>
+      <c r="E455" t="n">
+        <v>455</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.4860298895386614</v>
+      </c>
+      <c r="G455" t="n">
+        <v>256</v>
+      </c>
+      <c r="H455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C456" s="2" t="n">
+        <v>43557.54828703704</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.4691260291323622</v>
+      </c>
+      <c r="E456" t="n">
+        <v>455</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.4217024041585445</v>
+      </c>
+      <c r="G456" t="n">
+        <v>256</v>
+      </c>
+      <c r="H456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C457" s="2" t="n">
+        <v>43557.55032407407</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.4978230171805131</v>
+      </c>
+      <c r="E457" t="n">
+        <v>531</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.6426666666666667</v>
+      </c>
+      <c r="G457" t="n">
+        <v>256</v>
+      </c>
+      <c r="H457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C458" s="2" t="n">
+        <v>43557.55130787037</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.4839373970345964</v>
+      </c>
+      <c r="E458" t="n">
+        <v>531</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.5539999999999999</v>
+      </c>
+      <c r="G458" t="n">
+        <v>256</v>
+      </c>
+      <c r="H458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>43557.55230324074</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.5569545775476583</v>
+      </c>
+      <c r="E459" t="n">
+        <v>531</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.5353333333333333</v>
+      </c>
+      <c r="G459" t="n">
+        <v>256</v>
+      </c>
+      <c r="H459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>43557.55329861111</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.5300658978583196</v>
+      </c>
+      <c r="E460" t="n">
+        <v>531</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.6226666666666667</v>
+      </c>
+      <c r="G460" t="n">
+        <v>256</v>
+      </c>
+      <c r="H460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C461" s="2" t="n">
+        <v>43557.55428240741</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.5617204048011297</v>
+      </c>
+      <c r="E461" t="n">
+        <v>531</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.5433333333333333</v>
+      </c>
+      <c r="G461" t="n">
+        <v>256</v>
+      </c>
+      <c r="H461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C462" s="2" t="n">
+        <v>43557.5552662037</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.5603083078371381</v>
+      </c>
+      <c r="E462" t="n">
+        <v>531</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.5226666666666666</v>
+      </c>
+      <c r="G462" t="n">
+        <v>256</v>
+      </c>
+      <c r="H462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C463" s="2" t="n">
+        <v>43557.55625</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.5093551423864439</v>
+      </c>
+      <c r="E463" t="n">
+        <v>531</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G463" t="n">
+        <v>256</v>
+      </c>
+      <c r="H463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C464" s="2" t="n">
+        <v>43557.55723379629</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.5465991998117204</v>
+      </c>
+      <c r="E464" t="n">
+        <v>531</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.6393333333333333</v>
+      </c>
+      <c r="G464" t="n">
+        <v>256</v>
+      </c>
+      <c r="H464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>43557.55820601852</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.4804071546246176</v>
+      </c>
+      <c r="E465" t="n">
+        <v>531</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G465" t="n">
+        <v>256</v>
+      </c>
+      <c r="H465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>43557.55922453704</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.5285361261473288</v>
+      </c>
+      <c r="E466" t="n">
+        <v>531</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G466" t="n">
+        <v>256</v>
+      </c>
+      <c r="H466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>43557.56020833334</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.5459519887032243</v>
+      </c>
+      <c r="E467" t="n">
+        <v>531</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.5986666666666667</v>
+      </c>
+      <c r="G467" t="n">
+        <v>256</v>
+      </c>
+      <c r="H467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>43557.56119212963</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.5639562249941162</v>
+      </c>
+      <c r="E468" t="n">
+        <v>531</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G468" t="n">
+        <v>256</v>
+      </c>
+      <c r="H468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>43557.56217592592</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.5414803483172511</v>
+      </c>
+      <c r="E469" t="n">
+        <v>531</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.5973333333333334</v>
+      </c>
+      <c r="G469" t="n">
+        <v>256</v>
+      </c>
+      <c r="H469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>43557.56315972222</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.5289479877618263</v>
+      </c>
+      <c r="E470" t="n">
+        <v>531</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G470" t="n">
+        <v>256</v>
+      </c>
+      <c r="H470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C471" s="2" t="n">
+        <v>43557.56414351852</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.5506001412096964</v>
+      </c>
+      <c r="E471" t="n">
+        <v>531</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.5673333333333334</v>
+      </c>
+      <c r="G471" t="n">
+        <v>256</v>
+      </c>
+      <c r="H471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>43557.56512731482</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.5614262179336315</v>
+      </c>
+      <c r="E472" t="n">
+        <v>531</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="G472" t="n">
+        <v>256</v>
+      </c>
+      <c r="H472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>43557.56611111111</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.5672511179100965</v>
+      </c>
+      <c r="E473" t="n">
+        <v>531</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.6026666666666667</v>
+      </c>
+      <c r="G473" t="n">
+        <v>256</v>
+      </c>
+      <c r="H473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>43557.56708333334</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.5732525300070604</v>
+      </c>
+      <c r="E474" t="n">
+        <v>531</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.5746666666666667</v>
+      </c>
+      <c r="G474" t="n">
+        <v>256</v>
+      </c>
+      <c r="H474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>43557.56805555556</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.5673687926570958</v>
+      </c>
+      <c r="E475" t="n">
+        <v>531</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G475" t="n">
+        <v>256</v>
+      </c>
+      <c r="H475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>43557.56902777778</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.5610143563191339</v>
+      </c>
+      <c r="E476" t="n">
+        <v>531</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="G476" t="n">
+        <v>256</v>
+      </c>
+      <c r="H476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>43557.57001157408</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.5571899270416568</v>
+      </c>
+      <c r="E477" t="n">
+        <v>531</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="G477" t="n">
+        <v>256</v>
+      </c>
+      <c r="H477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>43557.57098379629</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.5046481525064721</v>
+      </c>
+      <c r="E478" t="n">
+        <v>531</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.5586666666666666</v>
+      </c>
+      <c r="G478" t="n">
+        <v>256</v>
+      </c>
+      <c r="H478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>43557.57195601852</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.5264179807013415</v>
+      </c>
+      <c r="E479" t="n">
+        <v>531</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="G479" t="n">
+        <v>256</v>
+      </c>
+      <c r="H479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>43557.57292824074</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.5172393504353966</v>
+      </c>
+      <c r="E480" t="n">
+        <v>531</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G480" t="n">
+        <v>256</v>
+      </c>
+      <c r="H480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>43557.57388888889</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.5168863261943987</v>
+      </c>
+      <c r="E481" t="n">
+        <v>531</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.6373333333333333</v>
+      </c>
+      <c r="G481" t="n">
+        <v>256</v>
+      </c>
+      <c r="H481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>43557.57484953704</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.5447752412332314</v>
+      </c>
+      <c r="E482" t="n">
+        <v>531</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.6266666666666667</v>
+      </c>
+      <c r="G482" t="n">
+        <v>256</v>
+      </c>
+      <c r="H482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>43557.57582175926</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.5453047775947282</v>
+      </c>
+      <c r="E483" t="n">
+        <v>531</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G483" t="n">
+        <v>256</v>
+      </c>
+      <c r="H483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>43557.57678240741</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.5606024947046364</v>
+      </c>
+      <c r="E484" t="n">
+        <v>531</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.5386666666666666</v>
+      </c>
+      <c r="G484" t="n">
+        <v>256</v>
+      </c>
+      <c r="H484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C485" s="2" t="n">
+        <v>43557.57775462963</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.53165450694281</v>
+      </c>
+      <c r="E485" t="n">
+        <v>531</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G485" t="n">
+        <v>256</v>
+      </c>
+      <c r="H485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C486" s="2" t="n">
+        <v>43557.57871527778</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.5559543421981643</v>
+      </c>
+      <c r="E486" t="n">
+        <v>531</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G486" t="n">
+        <v>256</v>
+      </c>
+      <c r="H486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C487" s="2" t="n">
+        <v>43557.57967592592</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.5274770534243352</v>
+      </c>
+      <c r="E487" t="n">
+        <v>531</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="G487" t="n">
+        <v>256</v>
+      </c>
+      <c r="H487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C488" s="2" t="n">
+        <v>43557.58063657407</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.5325370675453048</v>
+      </c>
+      <c r="E488" t="n">
+        <v>531</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.5873333333333334</v>
+      </c>
+      <c r="G488" t="n">
+        <v>256</v>
+      </c>
+      <c r="H488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>43557.58159722222</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.572664156272064</v>
+      </c>
+      <c r="E489" t="n">
+        <v>531</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.5846666666666667</v>
+      </c>
+      <c r="G489" t="n">
+        <v>256</v>
+      </c>
+      <c r="H489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>43557.58255787037</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.5237702988938574</v>
+      </c>
+      <c r="E490" t="n">
+        <v>531</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.6206666666666667</v>
+      </c>
+      <c r="G490" t="n">
+        <v>256</v>
+      </c>
+      <c r="H490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>43557.58351851852</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.5069428100729584</v>
+      </c>
+      <c r="E491" t="n">
+        <v>531</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.6506666666666666</v>
+      </c>
+      <c r="G491" t="n">
+        <v>256</v>
+      </c>
+      <c r="H491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>43557.58568287037</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.5307267626029505</v>
+      </c>
+      <c r="E492" t="n">
+        <v>607</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="G492" t="n">
+        <v>256</v>
+      </c>
+      <c r="H492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>43557.58679398148</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.5892388451443571</v>
+      </c>
+      <c r="E493" t="n">
+        <v>607</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.4826762246117085</v>
+      </c>
+      <c r="G493" t="n">
+        <v>256</v>
+      </c>
+      <c r="H493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>43557.58790509259</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.5854375961625486</v>
+      </c>
+      <c r="E494" t="n">
+        <v>607</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.52389486260454</v>
+      </c>
+      <c r="G494" t="n">
+        <v>256</v>
+      </c>
+      <c r="H494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>43557.5890162037</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.6088333785862974</v>
+      </c>
+      <c r="E495" t="n">
+        <v>607</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.5591397849462365</v>
+      </c>
+      <c r="G495" t="n">
+        <v>256</v>
+      </c>
+      <c r="H495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>43557.59017361111</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.6016381572993031</v>
+      </c>
+      <c r="E496" t="n">
+        <v>607</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.5209080047789725</v>
+      </c>
+      <c r="G496" t="n">
+        <v>256</v>
+      </c>
+      <c r="H496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>43557.59128472222</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.5608199837089329</v>
+      </c>
+      <c r="E497" t="n">
+        <v>607</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.5412186379928315</v>
+      </c>
+      <c r="G497" t="n">
+        <v>256</v>
+      </c>
+      <c r="H497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C498" s="2" t="n">
+        <v>43557.59239583334</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.5714091773011132</v>
+      </c>
+      <c r="E498" t="n">
+        <v>607</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.5949820788530465</v>
+      </c>
+      <c r="G498" t="n">
+        <v>256</v>
+      </c>
+      <c r="H498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>43557.59350694445</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.5973391257127342</v>
+      </c>
+      <c r="E499" t="n">
+        <v>607</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.5758661887694145</v>
+      </c>
+      <c r="G499" t="n">
+        <v>256</v>
+      </c>
+      <c r="H499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C500" s="2" t="n">
+        <v>43557.59460648148</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.5888315684677347</v>
+      </c>
+      <c r="E500" t="n">
+        <v>607</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.6069295101553166</v>
+      </c>
+      <c r="G500" t="n">
+        <v>256</v>
+      </c>
+      <c r="H500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>43557.59570601852</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.5891030862521495</v>
+      </c>
+      <c r="E501" t="n">
+        <v>607</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.6660692951015532</v>
+      </c>
+      <c r="G501" t="n">
+        <v>256</v>
+      </c>
+      <c r="H501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>43557.59680555556</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.6232690741243552</v>
+      </c>
+      <c r="E502" t="n">
+        <v>607</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.5704898446833929</v>
+      </c>
+      <c r="G502" t="n">
+        <v>256</v>
+      </c>
+      <c r="H502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C503" s="2" t="n">
+        <v>43557.5979050926</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.5929948411620961</v>
+      </c>
+      <c r="E503" t="n">
+        <v>607</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.6021505376344086</v>
+      </c>
+      <c r="G503" t="n">
+        <v>256</v>
+      </c>
+      <c r="H503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C504" s="2" t="n">
+        <v>43557.59903935185</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.5511811023622047</v>
+      </c>
+      <c r="E504" t="n">
+        <v>607</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.5854241338112306</v>
+      </c>
+      <c r="G504" t="n">
+        <v>256</v>
+      </c>
+      <c r="H504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C505" s="2" t="n">
+        <v>43557.60012731481</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.5836727305638519</v>
+      </c>
+      <c r="E505" t="n">
+        <v>607</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.5919952210274791</v>
+      </c>
+      <c r="G505" t="n">
+        <v>256</v>
+      </c>
+      <c r="H505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C506" s="2" t="n">
+        <v>43557.60121527778</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.5804597701149425</v>
+      </c>
+      <c r="E506" t="n">
+        <v>607</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.5836320191158901</v>
+      </c>
+      <c r="G506" t="n">
+        <v>256</v>
+      </c>
+      <c r="H506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C507" s="2" t="n">
+        <v>43557.60230324074</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.6016381572993031</v>
+      </c>
+      <c r="E507" t="n">
+        <v>607</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.6117084826762246</v>
+      </c>
+      <c r="G507" t="n">
+        <v>256</v>
+      </c>
+      <c r="H507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C508" s="2" t="n">
+        <v>43557.6033912037</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.5261562132319667</v>
+      </c>
+      <c r="E508" t="n">
+        <v>607</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.5382317801672639</v>
+      </c>
+      <c r="G508" t="n">
+        <v>256</v>
+      </c>
+      <c r="H508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C509" s="2" t="n">
+        <v>43557.6044675926</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.5891935921802878</v>
+      </c>
+      <c r="E509" t="n">
+        <v>607</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.6385902031063322</v>
+      </c>
+      <c r="G509" t="n">
+        <v>256</v>
+      </c>
+      <c r="H509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C510" s="2" t="n">
+        <v>43557.60555555556</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.558376323649199</v>
+      </c>
+      <c r="E510" t="n">
+        <v>607</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.6140979689366786</v>
+      </c>
+      <c r="G510" t="n">
+        <v>256</v>
+      </c>
+      <c r="H510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C511" s="2" t="n">
+        <v>43557.60667824074</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.585844872839171</v>
+      </c>
+      <c r="E511" t="n">
+        <v>607</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.5890083632019116</v>
+      </c>
+      <c r="G511" t="n">
+        <v>256</v>
+      </c>
+      <c r="H511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>43557.60775462963</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.5567924699067789</v>
+      </c>
+      <c r="E512" t="n">
+        <v>607</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.5627240143369175</v>
+      </c>
+      <c r="G512" t="n">
+        <v>256</v>
+      </c>
+      <c r="H512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>43557.60884259259</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.5723594895465653</v>
+      </c>
+      <c r="E513" t="n">
+        <v>607</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.5692951015531661</v>
+      </c>
+      <c r="G513" t="n">
+        <v>256</v>
+      </c>
+      <c r="H513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>43557.60993055555</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.5664766042175763</v>
+      </c>
+      <c r="E514" t="n">
+        <v>607</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.5095579450418161</v>
+      </c>
+      <c r="G514" t="n">
+        <v>256</v>
+      </c>
+      <c r="H514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>43557.61100694445</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.5918635170603674</v>
+      </c>
+      <c r="E515" t="n">
+        <v>607</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.6117084826762246</v>
+      </c>
+      <c r="G515" t="n">
+        <v>256</v>
+      </c>
+      <c r="H515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C516" s="2" t="n">
+        <v>43557.61210648148</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.5834917187075753</v>
+      </c>
+      <c r="E516" t="n">
+        <v>607</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.5937873357228196</v>
+      </c>
+      <c r="G516" t="n">
+        <v>256</v>
+      </c>
+      <c r="H516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C517" s="2" t="n">
+        <v>43557.61319444444</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.5674721694270974</v>
+      </c>
+      <c r="E517" t="n">
+        <v>607</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.526284348864994</v>
+      </c>
+      <c r="G517" t="n">
+        <v>256</v>
+      </c>
+      <c r="H517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C518" s="2" t="n">
+        <v>43557.61427083334</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.5643044619422573</v>
+      </c>
+      <c r="E518" t="n">
+        <v>607</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.6600955794504182</v>
+      </c>
+      <c r="G518" t="n">
+        <v>256</v>
+      </c>
+      <c r="H518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C519" s="2" t="n">
+        <v>43557.61534722222</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.5652547741877093</v>
+      </c>
+      <c r="E519" t="n">
+        <v>607</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.534647550776583</v>
+      </c>
+      <c r="G519" t="n">
+        <v>256</v>
+      </c>
+      <c r="H519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C520" s="2" t="n">
+        <v>43557.61643518518</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.5708661417322834</v>
+      </c>
+      <c r="E520" t="n">
+        <v>607</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.5507765830346476</v>
+      </c>
+      <c r="G520" t="n">
+        <v>256</v>
+      </c>
+      <c r="H520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C521" s="2" t="n">
+        <v>43557.61751157408</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.5743958729296769</v>
+      </c>
+      <c r="E521" t="n">
+        <v>607</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.6158900836320191</v>
+      </c>
+      <c r="G521" t="n">
+        <v>256</v>
+      </c>
+      <c r="H521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C522" s="2" t="n">
+        <v>43557.61858796296</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.5896913747850484</v>
+      </c>
+      <c r="E522" t="n">
+        <v>607</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.6045400238948626</v>
+      </c>
+      <c r="G522" t="n">
+        <v>256</v>
+      </c>
+      <c r="H522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C523" s="2" t="n">
+        <v>43557.61967592593</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.5748936555344375</v>
+      </c>
+      <c r="E523" t="n">
+        <v>607</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.5872162485065711</v>
+      </c>
+      <c r="G523" t="n">
+        <v>256</v>
+      </c>
+      <c r="H523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C524" s="2" t="n">
+        <v>43557.62075231481</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.6151235405919088</v>
+      </c>
+      <c r="E524" t="n">
+        <v>607</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.6015531660692951</v>
+      </c>
+      <c r="G524" t="n">
+        <v>256</v>
+      </c>
+      <c r="H524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>43557.62188657407</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.5695538057742782</v>
+      </c>
+      <c r="E525" t="n">
+        <v>607</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.529868578255675</v>
+      </c>
+      <c r="G525" t="n">
+        <v>256</v>
+      </c>
+      <c r="H525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>43557.62304398148</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.5812290705041179</v>
+      </c>
+      <c r="E526" t="n">
+        <v>607</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.6224611708482676</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2562019</v>
+      </c>
+      <c r="H526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>43557.82667824074</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.5543035568829758</v>
+      </c>
+      <c r="E527" t="n">
+        <v>607</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.5424133811230586</v>
+      </c>
+      <c r="G527" t="n">
+        <v>256</v>
+      </c>
+      <c r="H527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>43557.82793981482</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.5791021811928682</v>
+      </c>
+      <c r="E528" t="n">
+        <v>607</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.5860215053763441</v>
+      </c>
+      <c r="G528" t="n">
+        <v>256</v>
+      </c>
+      <c r="H528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>43557.82921296296</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.5791474341569373</v>
+      </c>
+      <c r="E529" t="n">
+        <v>607</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.5716845878136201</v>
+      </c>
+      <c r="G529" t="n">
+        <v>256</v>
+      </c>
+      <c r="H529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C530" s="2" t="n">
+        <v>43557.83043981482</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.6065254774187709</v>
+      </c>
+      <c r="E530" t="n">
+        <v>607</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.6391875746714456</v>
+      </c>
+      <c r="G530" t="n">
+        <v>256</v>
+      </c>
+      <c r="H530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C531" s="2" t="n">
+        <v>43557.83166666667</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.6224545207711105</v>
+      </c>
+      <c r="E531" t="n">
+        <v>607</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.5860215053763441</v>
+      </c>
+      <c r="G531" t="n">
+        <v>256</v>
+      </c>
+      <c r="H531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C532" s="2" t="n">
+        <v>43557.83288194444</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.6008688569101276</v>
+      </c>
+      <c r="E532" t="n">
+        <v>607</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.5752688172043011</v>
+      </c>
+      <c r="G532" t="n">
+        <v>256</v>
+      </c>
+      <c r="H532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C533" s="2" t="n">
+        <v>43557.83412037037</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.6030409991854466</v>
+      </c>
+      <c r="E533" t="n">
+        <v>607</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.6045400238948626</v>
+      </c>
+      <c r="G533" t="n">
+        <v>256</v>
+      </c>
+      <c r="H533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C534" s="2" t="n">
+        <v>43557.83537037037</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.6392886234048331</v>
+      </c>
+      <c r="E534" t="n">
+        <v>607</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.6087216248506571</v>
+      </c>
+      <c r="G534" t="n">
+        <v>256</v>
+      </c>
+      <c r="H534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C535" s="2" t="n">
+        <v>43557.83658564815</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.6303285365191421</v>
+      </c>
+      <c r="E535" t="n">
+        <v>607</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.5884109916367981</v>
+      </c>
+      <c r="G535" t="n">
+        <v>256</v>
+      </c>
+      <c r="H535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C536" s="2" t="n">
+        <v>43557.83777777778</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.6060729477780795</v>
+      </c>
+      <c r="E536" t="n">
+        <v>607</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.5364396654719236</v>
+      </c>
+      <c r="G536" t="n">
+        <v>256</v>
+      </c>
+      <c r="H536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C537" s="2" t="n">
+        <v>43557.83898148148</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.6092406552629197</v>
+      </c>
+      <c r="E537" t="n">
+        <v>607</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.5854241338112306</v>
+      </c>
+      <c r="G537" t="n">
+        <v>256</v>
+      </c>
+      <c r="H537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C538" s="2" t="n">
+        <v>43557.84019675926</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.6242193863698072</v>
+      </c>
+      <c r="E538" t="n">
+        <v>607</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="G538" t="n">
+        <v>256</v>
+      </c>
+      <c r="H538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C539" s="2" t="n">
+        <v>43557.84140046296</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.6173861887953661</v>
+      </c>
+      <c r="E539" t="n">
+        <v>607</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.548984468339307</v>
+      </c>
+      <c r="G539" t="n">
+        <v>256</v>
+      </c>
+      <c r="H539" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C540" s="2" t="n">
+        <v>43557.84260416667</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.6472983980450719</v>
+      </c>
+      <c r="E540" t="n">
+        <v>607</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.5400238948626045</v>
+      </c>
+      <c r="G540" t="n">
+        <v>256</v>
+      </c>
+      <c r="H540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C541" s="2" t="n">
+        <v>43557.8437962963</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.6387908408000724</v>
+      </c>
+      <c r="E541" t="n">
+        <v>607</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.5627240143369175</v>
+      </c>
+      <c r="G541" t="n">
+        <v>256</v>
+      </c>
+      <c r="H541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C542" s="2" t="n">
+        <v>43557.84497685185</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.6034935288261382</v>
+      </c>
+      <c r="E542" t="n">
+        <v>607</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.6332138590203107</v>
+      </c>
+      <c r="G542" t="n">
+        <v>256</v>
+      </c>
+      <c r="H542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C543" s="2" t="n">
+        <v>43557.84616898148</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.6202823784957915</v>
+      </c>
+      <c r="E543" t="n">
+        <v>607</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.55973715651135</v>
+      </c>
+      <c r="G543" t="n">
+        <v>256</v>
+      </c>
+      <c r="H543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C544" s="2" t="n">
+        <v>43557.84734953703</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.6020001810118563</v>
+      </c>
+      <c r="E544" t="n">
+        <v>607</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.5645161290322581</v>
+      </c>
+      <c r="G544" t="n">
+        <v>256</v>
+      </c>
+      <c r="H544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C545" s="2" t="n">
+        <v>43557.84853009259</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.6244003982260838</v>
+      </c>
+      <c r="E545" t="n">
+        <v>607</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.5669056152927121</v>
+      </c>
+      <c r="G545" t="n">
+        <v>256</v>
+      </c>
+      <c r="H545" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C546" s="2" t="n">
+        <v>43557.84971064814</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.6484749751108697</v>
+      </c>
+      <c r="E546" t="n">
+        <v>607</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.5824372759856631</v>
+      </c>
+      <c r="G546" t="n">
+        <v>256</v>
+      </c>
+      <c r="H546" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C547" s="2" t="n">
+        <v>43557.85087962963</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.6331794732554983</v>
+      </c>
+      <c r="E547" t="n">
+        <v>607</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.5704898446833929</v>
+      </c>
+      <c r="G547" t="n">
+        <v>256</v>
+      </c>
+      <c r="H547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C548" s="2" t="n">
+        <v>43557.85203703704</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.6538148248710289</v>
+      </c>
+      <c r="E548" t="n">
+        <v>607</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.5692951015531661</v>
+      </c>
+      <c r="G548" t="n">
+        <v>256</v>
+      </c>
+      <c r="H548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C549" s="2" t="n">
+        <v>43557.85320601852</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.6176124536157118</v>
+      </c>
+      <c r="E549" t="n">
+        <v>607</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="G549" t="n">
+        <v>256</v>
+      </c>
+      <c r="H549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C550" s="2" t="n">
+        <v>43557.85436342593</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.6304642954113494</v>
+      </c>
+      <c r="E550" t="n">
+        <v>607</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.5842293906810035</v>
+      </c>
+      <c r="G550" t="n">
+        <v>256</v>
+      </c>
+      <c r="H550" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C551" s="2" t="n">
+        <v>43557.8555324074</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.6236763508009775</v>
+      </c>
+      <c r="E551" t="n">
+        <v>607</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.572879330943847</v>
+      </c>
+      <c r="G551" t="n">
+        <v>256</v>
+      </c>
+      <c r="H551" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C552" s="2" t="n">
+        <v>43557.85667824074</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.6447189790931306</v>
+      </c>
+      <c r="E552" t="n">
+        <v>607</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.6350059737156512</v>
+      </c>
+      <c r="G552" t="n">
+        <v>256</v>
+      </c>
+      <c r="H552" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C553" s="2" t="n">
+        <v>43557.85782407408</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.6350348447823333</v>
+      </c>
+      <c r="E553" t="n">
+        <v>607</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.5591397849462365</v>
+      </c>
+      <c r="G553" t="n">
+        <v>256</v>
+      </c>
+      <c r="H553" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C554" s="2" t="n">
+        <v>43557.85896990741</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.6404652004706308</v>
+      </c>
+      <c r="E554" t="n">
+        <v>607</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="G554" t="n">
+        <v>256</v>
+      </c>
+      <c r="H554" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C555" s="2" t="n">
+        <v>43557.86012731482</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.5934021178387184</v>
+      </c>
+      <c r="E555" t="n">
+        <v>607</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.529868578255675</v>
+      </c>
+      <c r="G555" t="n">
+        <v>256</v>
+      </c>
+      <c r="H555" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C556" s="2" t="n">
+        <v>43557.86128472222</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.6364376866684768</v>
+      </c>
+      <c r="E556" t="n">
+        <v>607</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.5579450418160096</v>
+      </c>
+      <c r="G556" t="n">
+        <v>256</v>
+      </c>
+      <c r="H556" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C557" s="2" t="n">
+        <v>43557.86243055556</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.6326364376866684</v>
+      </c>
+      <c r="E557" t="n">
+        <v>607</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.5836320191158901</v>
+      </c>
+      <c r="G557" t="n">
+        <v>256</v>
+      </c>
+      <c r="H557" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C558" s="2" t="n">
+        <v>43557.86357638889</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.6444022083446466</v>
+      </c>
+      <c r="E558" t="n">
+        <v>607</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.6403823178016727</v>
+      </c>
+      <c r="G558" t="n">
+        <v>256</v>
+      </c>
+      <c r="H558" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C559" s="2" t="n">
+        <v>43557.86471064815</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.6181102362204725</v>
+      </c>
+      <c r="E559" t="n">
+        <v>607</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.6236559139784946</v>
+      </c>
+      <c r="G559" t="n">
+        <v>256</v>
+      </c>
+      <c r="H559" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C560" s="2" t="n">
+        <v>43557.86584490741</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.6201013666395149</v>
+      </c>
+      <c r="E560" t="n">
+        <v>607</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.5931899641577061</v>
+      </c>
+      <c r="G560" t="n">
+        <v>256</v>
+      </c>
+      <c r="H560" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C561" s="2" t="n">
+        <v>43557.86699074074</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.6581591094216671</v>
+      </c>
+      <c r="E561" t="n">
+        <v>607</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.5991636798088411</v>
+      </c>
+      <c r="G561" t="n">
+        <v>256</v>
+      </c>
+      <c r="H561" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C562" s="2" t="n">
+        <v>43557.868125</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.6318218843334238</v>
+      </c>
+      <c r="E562" t="n">
+        <v>607</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.5292712066905615</v>
+      </c>
+      <c r="G562" t="n">
+        <v>256</v>
+      </c>
+      <c r="H562" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C563" s="2" t="n">
+        <v>43557.86925925926</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.6036745406824147</v>
+      </c>
+      <c r="E563" t="n">
+        <v>607</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.5525686977299881</v>
+      </c>
+      <c r="G563" t="n">
+        <v>256</v>
+      </c>
+      <c r="H563" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C564" s="2" t="n">
+        <v>43557.87039351852</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.6292877183455516</v>
+      </c>
+      <c r="E564" t="n">
+        <v>607</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.5424133811230586</v>
+      </c>
+      <c r="G564" t="n">
+        <v>256</v>
+      </c>
+      <c r="H564" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C565" s="2" t="n">
+        <v>43557.87155092593</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.6472531450810028</v>
+      </c>
+      <c r="E565" t="n">
+        <v>607</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.5734767025089605</v>
+      </c>
+      <c r="G565" t="n">
+        <v>256</v>
+      </c>
+      <c r="H565" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>43557</v>
+      </c>
+      <c r="C566" s="2" t="n">
+        <v>43557.87268518518</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.6457145443026518</v>
+      </c>
+      <c r="E566" t="n">
+        <v>607</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.6015531660692951</v>
+      </c>
+      <c r="G566" t="n">
+        <v>256</v>
+      </c>
+      <c r="H566" t="b">
         <v>0</v>
       </c>
     </row>
